--- a/Document/5.SpringBacklog/Sprint2_Backlog.xlsx
+++ b/Document/5.SpringBacklog/Sprint2_Backlog.xlsx
@@ -15,9 +15,6 @@
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -1060,7 +1057,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>12</c:v>
@@ -1279,16 +1276,16 @@
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>20.5</c:v>
@@ -1601,295 +1598,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Estimate"/>
-      <sheetName val="Actual"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="F1">
-            <v>43349</v>
-          </cell>
-          <cell r="G1">
-            <v>43350</v>
-          </cell>
-          <cell r="H1">
-            <v>43351</v>
-          </cell>
-          <cell r="I1">
-            <v>43352</v>
-          </cell>
-          <cell r="J1">
-            <v>43353</v>
-          </cell>
-          <cell r="K1">
-            <v>43354</v>
-          </cell>
-          <cell r="L1">
-            <v>43355</v>
-          </cell>
-          <cell r="M1">
-            <v>43356</v>
-          </cell>
-          <cell r="N1">
-            <v>43357</v>
-          </cell>
-          <cell r="O1">
-            <v>43358</v>
-          </cell>
-          <cell r="P1">
-            <v>43359</v>
-          </cell>
-          <cell r="Q1">
-            <v>43360</v>
-          </cell>
-          <cell r="R1">
-            <v>43361</v>
-          </cell>
-          <cell r="S1">
-            <v>43362</v>
-          </cell>
-          <cell r="T1">
-            <v>43363</v>
-          </cell>
-          <cell r="U1">
-            <v>43364</v>
-          </cell>
-          <cell r="V1">
-            <v>43365</v>
-          </cell>
-          <cell r="W1">
-            <v>43366</v>
-          </cell>
-          <cell r="X1">
-            <v>43367</v>
-          </cell>
-          <cell r="Y1">
-            <v>43368</v>
-          </cell>
-          <cell r="Z1">
-            <v>43369</v>
-          </cell>
-          <cell r="AA1">
-            <v>43370</v>
-          </cell>
-          <cell r="AB1">
-            <v>43371</v>
-          </cell>
-          <cell r="AC1">
-            <v>43372</v>
-          </cell>
-          <cell r="AD1">
-            <v>43373</v>
-          </cell>
-          <cell r="AE1">
-            <v>43374</v>
-          </cell>
-          <cell r="AF1">
-            <v>43375</v>
-          </cell>
-          <cell r="AG1">
-            <v>43376</v>
-          </cell>
-          <cell r="AH1">
-            <v>43377</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43" t="str">
-            <v>Estimate</v>
-          </cell>
-          <cell r="F43">
-            <v>16.5</v>
-          </cell>
-          <cell r="G43">
-            <v>13</v>
-          </cell>
-          <cell r="H43">
-            <v>9.5</v>
-          </cell>
-          <cell r="I43">
-            <v>9.5</v>
-          </cell>
-          <cell r="J43">
-            <v>15</v>
-          </cell>
-          <cell r="K43">
-            <v>15</v>
-          </cell>
-          <cell r="L43">
-            <v>15</v>
-          </cell>
-          <cell r="M43">
-            <v>9</v>
-          </cell>
-          <cell r="N43">
-            <v>17</v>
-          </cell>
-          <cell r="O43">
-            <v>16</v>
-          </cell>
-          <cell r="P43">
-            <v>9.5</v>
-          </cell>
-          <cell r="Q43">
-            <v>38</v>
-          </cell>
-          <cell r="R43">
-            <v>31</v>
-          </cell>
-          <cell r="S43">
-            <v>30.5</v>
-          </cell>
-          <cell r="T43">
-            <v>30.5</v>
-          </cell>
-          <cell r="U43">
-            <v>30.5</v>
-          </cell>
-          <cell r="V43">
-            <v>33.5</v>
-          </cell>
-          <cell r="W43">
-            <v>33.5</v>
-          </cell>
-          <cell r="X43">
-            <v>12.5</v>
-          </cell>
-          <cell r="Y43">
-            <v>10.5</v>
-          </cell>
-          <cell r="Z43">
-            <v>11</v>
-          </cell>
-          <cell r="AA43">
-            <v>11</v>
-          </cell>
-          <cell r="AB43">
-            <v>11</v>
-          </cell>
-          <cell r="AC43">
-            <v>11</v>
-          </cell>
-          <cell r="AD43">
-            <v>11</v>
-          </cell>
-          <cell r="AE43">
-            <v>11</v>
-          </cell>
-          <cell r="AF43">
-            <v>6.5</v>
-          </cell>
-          <cell r="AG43">
-            <v>5.5</v>
-          </cell>
-          <cell r="AH43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44" t="str">
-            <v>Actual</v>
-          </cell>
-          <cell r="F44">
-            <v>16.5</v>
-          </cell>
-          <cell r="G44">
-            <v>12.5</v>
-          </cell>
-          <cell r="H44">
-            <v>9.5</v>
-          </cell>
-          <cell r="I44">
-            <v>9.5</v>
-          </cell>
-          <cell r="J44">
-            <v>15</v>
-          </cell>
-          <cell r="K44">
-            <v>15</v>
-          </cell>
-          <cell r="L44">
-            <v>15</v>
-          </cell>
-          <cell r="M44">
-            <v>9</v>
-          </cell>
-          <cell r="N44">
-            <v>20</v>
-          </cell>
-          <cell r="O44">
-            <v>16</v>
-          </cell>
-          <cell r="P44">
-            <v>9.5</v>
-          </cell>
-          <cell r="Q44">
-            <v>42.5</v>
-          </cell>
-          <cell r="R44">
-            <v>32.5</v>
-          </cell>
-          <cell r="S44">
-            <v>33.5</v>
-          </cell>
-          <cell r="T44">
-            <v>33.5</v>
-          </cell>
-          <cell r="U44">
-            <v>32.5</v>
-          </cell>
-          <cell r="V44">
-            <v>33.5</v>
-          </cell>
-          <cell r="W44">
-            <v>33.5</v>
-          </cell>
-          <cell r="X44">
-            <v>13.5</v>
-          </cell>
-          <cell r="Y44">
-            <v>11.5</v>
-          </cell>
-          <cell r="Z44">
-            <v>10.5</v>
-          </cell>
-          <cell r="AA44">
-            <v>10.5</v>
-          </cell>
-          <cell r="AB44">
-            <v>10.5</v>
-          </cell>
-          <cell r="AC44">
-            <v>10.5</v>
-          </cell>
-          <cell r="AD44">
-            <v>10.5</v>
-          </cell>
-          <cell r="AE44">
-            <v>10.5</v>
-          </cell>
-          <cell r="AF44">
-            <v>6.5</v>
-          </cell>
-          <cell r="AG44">
-            <v>5.5</v>
-          </cell>
-          <cell r="AH44">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2190,9 +1898,9 @@
   <dimension ref="A1:AML59"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="R57" sqref="R57"/>
+      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -4524,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="26">
         <v>0</v>
@@ -5138,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
         <v>1</v>
@@ -5444,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2">
         <v>2</v>
@@ -7691,7 +7399,7 @@
       </c>
       <c r="M57" s="17">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N57" s="17">
         <f t="shared" si="0"/>
@@ -7855,9 +7563,9 @@
   <dimension ref="A1:AM60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AI95" sqref="AI95:AI96"/>
+      <selection pane="bottomLeft" activeCell="AF125" sqref="AF125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7870,7 +7578,7 @@
     <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="78" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="97.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9963,8 +9671,8 @@
       <c r="N22" s="26">
         <v>2</v>
       </c>
-      <c r="O22" s="42">
-        <v>0</v>
+      <c r="O22" s="26">
+        <v>2</v>
       </c>
       <c r="P22" s="26">
         <v>2</v>
@@ -11426,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2">
         <v>1</v>
@@ -11530,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2">
         <v>1</v>
@@ -11634,10 +11342,10 @@
         <v>0</v>
       </c>
       <c r="Q38" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R38" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S38" s="2">
         <v>2</v>
@@ -13353,7 +13061,7 @@
         <v>18</v>
       </c>
       <c r="N58" s="29">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O58" s="29">
         <v>12</v>
@@ -13463,7 +13171,7 @@
       </c>
       <c r="O59" s="29">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="P59" s="29">
         <f t="shared" si="0"/>
@@ -13471,11 +13179,11 @@
       </c>
       <c r="Q59" s="29">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R59" s="29">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="S59" s="29">
         <f t="shared" si="0"/>

--- a/Document/5.SpringBacklog/Sprint2_Backlog.xlsx
+++ b/Document/5.SpringBacklog/Sprint2_Backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -144,20 +144,6 @@
   </si>
   <si>
     <t>Design user interface of Update account( Renter)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Design user interface of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Add accommodation (Landlord)</t>
-    </r>
   </si>
   <si>
     <t>Design user interface of Update Account(Landlord)</t>
@@ -346,34 +332,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Code front-end of Delete </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Room(Landlord)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Code back-end of Delete </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF00000A"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Room(Landlord) </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Code front-end of View </t>
     </r>
     <r>
@@ -544,6 +502,34 @@
       <t xml:space="preserve">Room(Landlord) </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code front-end of Delete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Room(Landlord)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code back-end of Delete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF00000A"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Room(Landlord) </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -552,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -598,12 +584,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF00000A"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -781,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -877,9 +857,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -901,19 +878,19 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,7 +920,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,7 +932,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1982,9 +1959,9 @@
   <dimension ref="A1:AML58"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -1992,7 +1969,7 @@
     <col min="1" max="1" width="6.140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="58" style="13" customWidth="1"/>
     <col min="3" max="3" width="28" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="66" customWidth="1"/>
     <col min="5" max="5" width="8" style="13" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="13" customWidth="1"/>
     <col min="7" max="8" width="7" style="13" customWidth="1"/>
@@ -2141,7 +2118,7 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="55">
         <v>4</v>
       </c>
       <c r="E2" s="23">
@@ -2255,7 +2232,7 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="55">
         <v>0.5</v>
       </c>
       <c r="E3" s="23">
@@ -2369,7 +2346,7 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="55">
         <v>1</v>
       </c>
       <c r="E4" s="23">
@@ -2483,7 +2460,7 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="55">
         <v>2</v>
       </c>
       <c r="E5" s="23">
@@ -2583,7 +2560,7 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="55">
         <v>2</v>
       </c>
       <c r="E6" s="23">
@@ -2685,7 +2662,7 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="56">
         <v>2</v>
       </c>
       <c r="E7" s="23">
@@ -2783,7 +2760,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="26"/>
-      <c r="D8" s="58"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="28"/>
@@ -2819,13 +2796,13 @@
       <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="55">
         <v>2</v>
       </c>
       <c r="E9" s="23">
@@ -2921,13 +2898,13 @@
       <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="55">
         <v>1</v>
       </c>
       <c r="E10" s="1">
@@ -3023,13 +3000,13 @@
       <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>36</v>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="56">
+        <v>62</v>
+      </c>
+      <c r="D11" s="55">
         <v>2</v>
       </c>
       <c r="E11" s="1">
@@ -3126,10 +3103,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="22">
         <v>0.5</v>
@@ -3228,12 +3205,12 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="56">
+        <v>62</v>
+      </c>
+      <c r="D13" s="55">
         <v>0.5</v>
       </c>
       <c r="E13" s="1">
@@ -3330,12 +3307,12 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="56">
+        <v>62</v>
+      </c>
+      <c r="D14" s="55">
         <v>1</v>
       </c>
       <c r="E14" s="1">
@@ -3432,12 +3409,12 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="56">
+        <v>62</v>
+      </c>
+      <c r="D15" s="55">
         <v>2</v>
       </c>
       <c r="E15" s="1">
@@ -3534,12 +3511,12 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="56">
+        <v>62</v>
+      </c>
+      <c r="D16" s="55">
         <v>0.5</v>
       </c>
       <c r="E16" s="23">
@@ -3639,9 +3616,9 @@
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="56">
+        <v>62</v>
+      </c>
+      <c r="D17" s="55">
         <v>0.5</v>
       </c>
       <c r="E17" s="23">
@@ -3741,7 +3718,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="58"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -3781,7 +3758,7 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="58">
         <v>1</v>
       </c>
       <c r="E19" s="32">
@@ -3883,7 +3860,7 @@
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="59">
         <v>2</v>
       </c>
       <c r="E20" s="24">
@@ -3980,12 +3957,12 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="59">
         <v>3</v>
       </c>
       <c r="E21" s="24">
@@ -4082,12 +4059,12 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="60">
+        <v>63</v>
+      </c>
+      <c r="D22" s="59">
         <v>2</v>
       </c>
       <c r="E22" s="24">
@@ -4184,12 +4161,12 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="59">
         <v>1.5</v>
       </c>
       <c r="E23" s="32">
@@ -4286,12 +4263,12 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="59">
         <v>1</v>
       </c>
       <c r="E24" s="24">
@@ -4390,12 +4367,12 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="59">
         <v>2</v>
       </c>
       <c r="E25" s="32">
@@ -4492,12 +4469,12 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="59">
         <v>1</v>
       </c>
       <c r="E26" s="32">
@@ -4594,12 +4571,12 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="59">
         <v>1.5</v>
       </c>
       <c r="E27" s="32">
@@ -4696,12 +4673,12 @@
         <v>25</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="59">
         <v>1</v>
       </c>
       <c r="E28" s="32">
@@ -4798,12 +4775,12 @@
         <v>26</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="59">
         <v>1</v>
       </c>
       <c r="E29" s="32">
@@ -4899,13 +4876,13 @@
       <c r="A30" s="22">
         <v>27</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>51</v>
+      <c r="B30" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="60">
         <v>1</v>
       </c>
       <c r="E30" s="23">
@@ -5001,13 +4978,13 @@
       <c r="A31" s="22">
         <v>28</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>52</v>
+      <c r="B31" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="61">
         <v>1.5</v>
       </c>
       <c r="E31" s="23">
@@ -5104,12 +5081,12 @@
         <v>29</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="62">
+      <c r="D32" s="61">
         <v>1</v>
       </c>
       <c r="E32" s="23">
@@ -5206,12 +5183,12 @@
         <v>30</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="61">
         <v>2</v>
       </c>
       <c r="E33" s="31">
@@ -5308,12 +5285,12 @@
         <v>31</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="61">
         <v>1</v>
       </c>
       <c r="E34" s="23">
@@ -5415,7 +5392,7 @@
       <c r="C35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="61">
         <v>2</v>
       </c>
       <c r="E35" s="23">
@@ -5517,7 +5494,7 @@
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="61">
         <v>1</v>
       </c>
       <c r="E36" s="23">
@@ -5619,7 +5596,7 @@
       <c r="C37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="62">
+      <c r="D37" s="61">
         <v>1</v>
       </c>
       <c r="E37" s="23">
@@ -5721,7 +5698,7 @@
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="62">
+      <c r="D38" s="61">
         <v>2</v>
       </c>
       <c r="E38" s="23">
@@ -5821,7 +5798,7 @@
         <v>13</v>
       </c>
       <c r="C39" s="26"/>
-      <c r="D39" s="58"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
@@ -5856,15 +5833,17 @@
     <row r="40" spans="1:33 1026:1026" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="59">
-        <v>1</v>
-      </c>
-      <c r="E40" s="32"/>
+      <c r="D40" s="58">
+        <v>1</v>
+      </c>
+      <c r="E40" s="32">
+        <v>0</v>
+      </c>
       <c r="F40" s="32">
         <v>0</v>
       </c>
@@ -5956,12 +5935,12 @@
         <v>37</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="59">
+      <c r="D41" s="58">
         <v>1</v>
       </c>
       <c r="E41" s="23">
@@ -6058,12 +6037,12 @@
         <v>38</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D42" s="58">
         <v>1</v>
       </c>
       <c r="E42" s="23">
@@ -6160,12 +6139,12 @@
         <v>39</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="58">
         <v>1</v>
       </c>
       <c r="E43" s="23">
@@ -6262,12 +6241,12 @@
         <v>40</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="59">
+      <c r="D44" s="58">
         <v>1</v>
       </c>
       <c r="E44" s="23">
@@ -6364,12 +6343,12 @@
         <v>41</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="59">
+      <c r="D45" s="58">
         <v>1</v>
       </c>
       <c r="E45" s="23">
@@ -6466,12 +6445,12 @@
         <v>42</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="56">
         <v>1</v>
       </c>
       <c r="E46" s="23">
@@ -6568,12 +6547,12 @@
         <v>43</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="56">
         <v>1.5</v>
       </c>
       <c r="E47" s="23">
@@ -6670,12 +6649,12 @@
         <v>44</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="57">
+      <c r="D48" s="56">
         <v>1</v>
       </c>
       <c r="E48" s="23">
@@ -6772,12 +6751,12 @@
         <v>45</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="57">
+      <c r="D49" s="56">
         <v>1</v>
       </c>
       <c r="E49" s="23">
@@ -6876,7 +6855,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="29"/>
-      <c r="D50" s="63"/>
+      <c r="D50" s="62"/>
       <c r="E50" s="29"/>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
@@ -6915,7 +6894,7 @@
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="64">
+      <c r="D51" s="63">
         <v>1</v>
       </c>
       <c r="E51" s="9">
@@ -6972,37 +6951,37 @@
       <c r="V51" s="9">
         <v>0</v>
       </c>
-      <c r="W51" s="37">
-        <v>1</v>
-      </c>
-      <c r="X51" s="37">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="37">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="37">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="37">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="37">
-        <v>1</v>
-      </c>
-      <c r="AD51" s="37">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="37">
-        <v>1</v>
-      </c>
-      <c r="AF51" s="37">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="37">
+      <c r="W51" s="36">
+        <v>1</v>
+      </c>
+      <c r="X51" s="36">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="36">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="36">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="36">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="36">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="36">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="36">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="36">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="36">
         <v>0</v>
       </c>
     </row>
@@ -7016,7 +6995,7 @@
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="56">
+      <c r="D52" s="55">
         <v>1</v>
       </c>
       <c r="E52" s="9">
@@ -7117,7 +7096,7 @@
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="56">
+      <c r="D53" s="55">
         <v>1</v>
       </c>
       <c r="E53" s="9">
@@ -7218,7 +7197,7 @@
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="56">
+      <c r="D54" s="55">
         <v>1</v>
       </c>
       <c r="E54" s="9">
@@ -7313,7 +7292,7 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="65"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -7348,121 +7327,121 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="65"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="8">
-        <f>SUM(E2:E54)</f>
+        <f t="shared" ref="E56:AG56" si="0">SUM(E2:E54)</f>
         <v>50</v>
       </c>
       <c r="F56" s="8">
-        <f>SUM(F2:F54)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="G56" s="8">
-        <f>SUM(G2:G54)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="H56" s="8">
-        <f>SUM(H2:H54)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="I56" s="8">
-        <f>SUM(I2:I54)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="J56" s="8">
-        <f>SUM(J2:J54)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="K56" s="8">
-        <f>SUM(K2:K54)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="L56" s="8">
-        <f>SUM(L2:L54)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="M56" s="8">
-        <f>SUM(M2:M54)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="N56" s="8">
-        <f>SUM(N2:N54)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="O56" s="8">
-        <f>SUM(O2:O54)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="P56" s="8">
-        <f>SUM(P2:P54)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="Q56" s="8">
-        <f>SUM(Q2:Q54)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="R56" s="8">
-        <f>SUM(R2:R54)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="S56" s="8">
-        <f>SUM(S2:S54)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="T56" s="8">
-        <f>SUM(T2:T54)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="U56" s="8">
-        <f>SUM(U2:U54)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="V56" s="8">
-        <f>SUM(V2:V54)</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="W56" s="8">
-        <f>SUM(W2:W54)</f>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="X56" s="8">
-        <f>SUM(X2:X54)</f>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="Y56" s="8">
-        <f>SUM(Y2:Y54)</f>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="Z56" s="8">
-        <f>SUM(Z2:Z54)</f>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="AA56" s="8">
-        <f>SUM(AA2:AA54)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="AB56" s="8">
-        <f>SUM(AB2:AB54)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="AC56" s="8">
-        <f>SUM(AC2:AC54)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="AD56" s="8">
-        <f>SUM(AD2:AD54)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="AE56" s="8">
-        <f>SUM(AE2:AE54)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="AF56" s="8">
-        <f>SUM(AF2:AF54)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AG56" s="8">
-        <f>SUM(AG2:AG54)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7470,7 +7449,7 @@
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="66"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -7503,7 +7482,7 @@
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="66"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
@@ -7548,8 +7527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
     </sheetView>
@@ -7815,7 +7794,7 @@
       <c r="N3" s="23">
         <v>0.5</v>
       </c>
-      <c r="O3" s="48">
+      <c r="O3" s="47">
         <v>0</v>
       </c>
       <c r="P3" s="23">
@@ -7842,7 +7821,7 @@
       <c r="W3" s="23">
         <v>0.5</v>
       </c>
-      <c r="X3" s="48">
+      <c r="X3" s="47">
         <v>0</v>
       </c>
       <c r="Y3" s="23">
@@ -8297,7 +8276,7 @@
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="49"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
@@ -8332,7 +8311,7 @@
       <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -8341,7 +8320,7 @@
       <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>2</v>
       </c>
       <c r="F9" s="23">
@@ -8436,7 +8415,7 @@
       <c r="A10" s="22">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -8445,7 +8424,7 @@
       <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>1</v>
       </c>
       <c r="F10" s="23">
@@ -8540,16 +8519,16 @@
       <c r="A11" s="22">
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>67</v>
+      <c r="B11" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10">
         <v>2</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>2</v>
       </c>
       <c r="F11" s="23">
@@ -8645,15 +8624,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="44">
+        <v>62</v>
+      </c>
+      <c r="D12" s="43">
         <v>0.5</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>1</v>
       </c>
       <c r="F12" s="10">
@@ -8749,15 +8728,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="44">
+        <v>62</v>
+      </c>
+      <c r="D13" s="43">
         <v>0.5</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>1</v>
       </c>
       <c r="F13" s="23">
@@ -8853,15 +8832,15 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="44">
-        <v>1</v>
-      </c>
-      <c r="E14" s="50">
+        <v>62</v>
+      </c>
+      <c r="D14" s="43">
+        <v>1</v>
+      </c>
+      <c r="E14" s="49">
         <v>1</v>
       </c>
       <c r="F14" s="23">
@@ -8957,15 +8936,15 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="44">
-        <v>2</v>
-      </c>
-      <c r="E15" s="38">
+        <v>62</v>
+      </c>
+      <c r="D15" s="43">
+        <v>2</v>
+      </c>
+      <c r="E15" s="37">
         <v>2</v>
       </c>
       <c r="F15" s="23">
@@ -9061,15 +9040,15 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="44">
+        <v>62</v>
+      </c>
+      <c r="D16" s="43">
         <v>0.5</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>0.5</v>
       </c>
       <c r="F16" s="23">
@@ -9078,7 +9057,7 @@
       <c r="G16" s="23">
         <v>0.5</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="47">
         <v>0</v>
       </c>
       <c r="I16" s="23">
@@ -9168,12 +9147,12 @@
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="44">
+        <v>62</v>
+      </c>
+      <c r="D17" s="43">
         <v>0.5</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>0.5</v>
       </c>
       <c r="F17" s="23">
@@ -9312,58 +9291,58 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="44">
-        <v>1</v>
-      </c>
-      <c r="E19" s="44">
-        <v>1</v>
-      </c>
-      <c r="F19" s="44">
-        <v>1</v>
-      </c>
-      <c r="G19" s="44">
-        <v>1</v>
-      </c>
-      <c r="H19" s="44">
-        <v>1</v>
-      </c>
-      <c r="I19" s="44">
-        <v>1</v>
-      </c>
-      <c r="J19" s="44">
-        <v>1</v>
-      </c>
-      <c r="K19" s="44">
-        <v>1</v>
-      </c>
-      <c r="L19" s="44">
-        <v>1</v>
-      </c>
-      <c r="M19" s="44">
-        <v>1</v>
-      </c>
-      <c r="N19" s="44">
-        <v>1</v>
-      </c>
-      <c r="O19" s="44">
-        <v>1</v>
-      </c>
-      <c r="P19" s="44">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="44">
-        <v>1</v>
-      </c>
-      <c r="R19" s="44">
-        <v>1</v>
-      </c>
-      <c r="S19" s="44">
-        <v>1</v>
-      </c>
-      <c r="T19" s="44">
-        <v>1</v>
-      </c>
-      <c r="U19" s="44">
+      <c r="D19" s="43">
+        <v>1</v>
+      </c>
+      <c r="E19" s="43">
+        <v>1</v>
+      </c>
+      <c r="F19" s="43">
+        <v>1</v>
+      </c>
+      <c r="G19" s="43">
+        <v>1</v>
+      </c>
+      <c r="H19" s="43">
+        <v>1</v>
+      </c>
+      <c r="I19" s="43">
+        <v>1</v>
+      </c>
+      <c r="J19" s="43">
+        <v>1</v>
+      </c>
+      <c r="K19" s="43">
+        <v>1</v>
+      </c>
+      <c r="L19" s="43">
+        <v>1</v>
+      </c>
+      <c r="M19" s="43">
+        <v>1</v>
+      </c>
+      <c r="N19" s="43">
+        <v>1</v>
+      </c>
+      <c r="O19" s="43">
+        <v>1</v>
+      </c>
+      <c r="P19" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="43">
+        <v>1</v>
+      </c>
+      <c r="R19" s="43">
+        <v>1</v>
+      </c>
+      <c r="S19" s="43">
+        <v>1</v>
+      </c>
+      <c r="T19" s="43">
+        <v>1</v>
+      </c>
+      <c r="U19" s="43">
         <v>1</v>
       </c>
       <c r="V19" s="32">
@@ -9416,58 +9395,58 @@
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="43">
         <v>1.5</v>
       </c>
-      <c r="E20" s="50">
-        <v>2</v>
-      </c>
-      <c r="F20" s="51">
-        <v>2</v>
-      </c>
-      <c r="G20" s="51">
-        <v>2</v>
-      </c>
-      <c r="H20" s="51">
-        <v>2</v>
-      </c>
-      <c r="I20" s="51">
-        <v>2</v>
-      </c>
-      <c r="J20" s="51">
-        <v>2</v>
-      </c>
-      <c r="K20" s="51">
-        <v>2</v>
-      </c>
-      <c r="L20" s="51">
-        <v>2</v>
-      </c>
-      <c r="M20" s="51">
-        <v>2</v>
-      </c>
-      <c r="N20" s="51">
-        <v>2</v>
-      </c>
-      <c r="O20" s="51">
-        <v>2</v>
-      </c>
-      <c r="P20" s="51">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="51">
-        <v>2</v>
-      </c>
-      <c r="R20" s="51">
-        <v>2</v>
-      </c>
-      <c r="S20" s="51">
-        <v>2</v>
-      </c>
-      <c r="T20" s="51">
-        <v>2</v>
-      </c>
-      <c r="U20" s="51">
+      <c r="E20" s="49">
+        <v>2</v>
+      </c>
+      <c r="F20" s="50">
+        <v>2</v>
+      </c>
+      <c r="G20" s="50">
+        <v>2</v>
+      </c>
+      <c r="H20" s="50">
+        <v>2</v>
+      </c>
+      <c r="I20" s="50">
+        <v>2</v>
+      </c>
+      <c r="J20" s="50">
+        <v>2</v>
+      </c>
+      <c r="K20" s="50">
+        <v>2</v>
+      </c>
+      <c r="L20" s="50">
+        <v>2</v>
+      </c>
+      <c r="M20" s="50">
+        <v>2</v>
+      </c>
+      <c r="N20" s="50">
+        <v>2</v>
+      </c>
+      <c r="O20" s="50">
+        <v>2</v>
+      </c>
+      <c r="P20" s="50">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="50">
+        <v>2</v>
+      </c>
+      <c r="R20" s="50">
+        <v>2</v>
+      </c>
+      <c r="S20" s="50">
+        <v>2</v>
+      </c>
+      <c r="T20" s="50">
+        <v>2</v>
+      </c>
+      <c r="U20" s="50">
         <v>2</v>
       </c>
       <c r="V20" s="32">
@@ -9515,15 +9494,15 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="44">
-        <v>1</v>
-      </c>
-      <c r="E21" s="39">
+      <c r="D21" s="43">
+        <v>1</v>
+      </c>
+      <c r="E21" s="38">
         <v>3</v>
       </c>
       <c r="F21" s="11">
@@ -9619,15 +9598,15 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="44">
-        <v>2</v>
-      </c>
-      <c r="E22" s="38">
+        <v>63</v>
+      </c>
+      <c r="D22" s="43">
+        <v>2</v>
+      </c>
+      <c r="E22" s="37">
         <v>2</v>
       </c>
       <c r="F22" s="10">
@@ -9723,15 +9702,15 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="44">
-        <v>1</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="D23" s="43">
+        <v>1</v>
+      </c>
+      <c r="E23" s="37">
         <v>1.5</v>
       </c>
       <c r="F23" s="10">
@@ -9827,15 +9806,15 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="44">
-        <v>1</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="D24" s="43">
+        <v>1</v>
+      </c>
+      <c r="E24" s="37">
         <v>1</v>
       </c>
       <c r="F24" s="10">
@@ -9931,15 +9910,15 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="45">
-        <v>1</v>
-      </c>
-      <c r="E25" s="38">
+      <c r="D25" s="44">
+        <v>1</v>
+      </c>
+      <c r="E25" s="37">
         <v>2</v>
       </c>
       <c r="F25" s="10">
@@ -10035,15 +10014,15 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="44">
         <v>1.5</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="37">
         <v>1.5</v>
       </c>
       <c r="F26" s="10">
@@ -10079,7 +10058,7 @@
       <c r="P26" s="10">
         <v>1.5</v>
       </c>
-      <c r="Q26" s="48">
+      <c r="Q26" s="47">
         <v>0</v>
       </c>
       <c r="R26" s="32">
@@ -10139,15 +10118,15 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="44">
-        <v>1</v>
-      </c>
-      <c r="E27" s="38">
+      <c r="D27" s="43">
+        <v>1</v>
+      </c>
+      <c r="E27" s="37">
         <v>1.5</v>
       </c>
       <c r="F27" s="10">
@@ -10243,15 +10222,15 @@
         <v>25</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="46">
-        <v>1</v>
-      </c>
-      <c r="E28" s="38">
+      <c r="D28" s="45">
+        <v>1</v>
+      </c>
+      <c r="E28" s="37">
         <v>1</v>
       </c>
       <c r="F28" s="10">
@@ -10347,15 +10326,15 @@
         <v>26</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="46">
-        <v>1</v>
-      </c>
-      <c r="E29" s="38">
+      <c r="D29" s="45">
+        <v>1</v>
+      </c>
+      <c r="E29" s="37">
         <v>1</v>
       </c>
       <c r="F29" s="10">
@@ -10450,16 +10429,16 @@
       <c r="A30" s="22">
         <v>27</v>
       </c>
-      <c r="B30" s="47" t="s">
-        <v>68</v>
+      <c r="B30" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="46">
-        <v>1</v>
-      </c>
-      <c r="E30" s="38">
+      <c r="D30" s="45">
+        <v>1</v>
+      </c>
+      <c r="E30" s="37">
         <v>1</v>
       </c>
       <c r="F30" s="23">
@@ -10507,7 +10486,7 @@
       <c r="T30" s="23">
         <v>1</v>
       </c>
-      <c r="U30" s="48">
+      <c r="U30" s="47">
         <v>0</v>
       </c>
       <c r="V30" s="23">
@@ -10554,64 +10533,64 @@
       <c r="A31" s="22">
         <v>28</v>
       </c>
-      <c r="B31" s="47" t="s">
-        <v>69</v>
+      <c r="B31" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="46">
-        <v>1</v>
-      </c>
-      <c r="E31" s="52">
-        <v>2</v>
-      </c>
-      <c r="F31" s="53">
-        <v>2</v>
-      </c>
-      <c r="G31" s="53">
-        <v>2</v>
-      </c>
-      <c r="H31" s="53">
-        <v>2</v>
-      </c>
-      <c r="I31" s="53">
-        <v>2</v>
-      </c>
-      <c r="J31" s="53">
-        <v>2</v>
-      </c>
-      <c r="K31" s="53">
-        <v>2</v>
-      </c>
-      <c r="L31" s="53">
-        <v>2</v>
-      </c>
-      <c r="M31" s="53">
-        <v>2</v>
-      </c>
-      <c r="N31" s="53">
-        <v>2</v>
-      </c>
-      <c r="O31" s="53">
-        <v>2</v>
-      </c>
-      <c r="P31" s="53">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="53">
-        <v>2</v>
-      </c>
-      <c r="R31" s="53">
-        <v>2</v>
-      </c>
-      <c r="S31" s="53">
-        <v>2</v>
-      </c>
-      <c r="T31" s="53">
-        <v>2</v>
-      </c>
-      <c r="U31" s="53">
+      <c r="D31" s="45">
+        <v>1</v>
+      </c>
+      <c r="E31" s="51">
+        <v>2</v>
+      </c>
+      <c r="F31" s="52">
+        <v>2</v>
+      </c>
+      <c r="G31" s="52">
+        <v>2</v>
+      </c>
+      <c r="H31" s="52">
+        <v>2</v>
+      </c>
+      <c r="I31" s="52">
+        <v>2</v>
+      </c>
+      <c r="J31" s="52">
+        <v>2</v>
+      </c>
+      <c r="K31" s="52">
+        <v>2</v>
+      </c>
+      <c r="L31" s="52">
+        <v>2</v>
+      </c>
+      <c r="M31" s="52">
+        <v>2</v>
+      </c>
+      <c r="N31" s="52">
+        <v>2</v>
+      </c>
+      <c r="O31" s="52">
+        <v>2</v>
+      </c>
+      <c r="P31" s="52">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="52">
+        <v>2</v>
+      </c>
+      <c r="R31" s="52">
+        <v>2</v>
+      </c>
+      <c r="S31" s="52">
+        <v>2</v>
+      </c>
+      <c r="T31" s="52">
+        <v>2</v>
+      </c>
+      <c r="U31" s="52">
         <v>2</v>
       </c>
       <c r="V31" s="23">
@@ -10659,15 +10638,15 @@
         <v>29</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="46">
-        <v>2</v>
-      </c>
-      <c r="E32" s="39">
+      <c r="D32" s="45">
+        <v>2</v>
+      </c>
+      <c r="E32" s="38">
         <v>1</v>
       </c>
       <c r="F32" s="11">
@@ -10763,15 +10742,15 @@
         <v>30</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="46">
-        <v>1</v>
-      </c>
-      <c r="E33" s="39">
+      <c r="D33" s="45">
+        <v>1</v>
+      </c>
+      <c r="E33" s="38">
         <v>2</v>
       </c>
       <c r="F33" s="11">
@@ -10867,15 +10846,15 @@
         <v>31</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="46">
-        <v>2</v>
-      </c>
-      <c r="E34" s="39">
+      <c r="D34" s="45">
+        <v>2</v>
+      </c>
+      <c r="E34" s="38">
         <v>1</v>
       </c>
       <c r="F34" s="11">
@@ -10976,10 +10955,10 @@
       <c r="C35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="36">
-        <v>1</v>
-      </c>
-      <c r="E35" s="39">
+      <c r="D35" s="35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="38">
         <v>2</v>
       </c>
       <c r="F35" s="23">
@@ -11080,10 +11059,10 @@
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="36">
-        <v>2</v>
-      </c>
-      <c r="E36" s="39">
+      <c r="D36" s="35">
+        <v>2</v>
+      </c>
+      <c r="E36" s="38">
         <v>1</v>
       </c>
       <c r="F36" s="11">
@@ -11184,10 +11163,10 @@
       <c r="C37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="36">
-        <v>1</v>
-      </c>
-      <c r="E37" s="54">
+      <c r="D37" s="35">
+        <v>1</v>
+      </c>
+      <c r="E37" s="53">
         <v>1</v>
       </c>
       <c r="F37" s="23">
@@ -11235,7 +11214,7 @@
       <c r="T37" s="23">
         <v>1</v>
       </c>
-      <c r="U37" s="48">
+      <c r="U37" s="47">
         <v>0</v>
       </c>
       <c r="V37" s="23">
@@ -11288,10 +11267,10 @@
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="36">
-        <v>1</v>
-      </c>
-      <c r="E38" s="38">
+      <c r="D38" s="35">
+        <v>1</v>
+      </c>
+      <c r="E38" s="37">
         <v>2</v>
       </c>
       <c r="F38" s="23">
@@ -11324,7 +11303,7 @@
       <c r="O38" s="23">
         <v>2</v>
       </c>
-      <c r="P38" s="48">
+      <c r="P38" s="47">
         <v>0</v>
       </c>
       <c r="Q38" s="23">
@@ -11389,7 +11368,7 @@
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="40"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
@@ -11425,7 +11404,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>17</v>
@@ -11433,7 +11412,7 @@
       <c r="D40" s="33">
         <v>1</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="37">
         <v>1</v>
       </c>
       <c r="F40" s="23">
@@ -11529,7 +11508,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>16</v>
@@ -11537,7 +11516,7 @@
       <c r="D41" s="33">
         <v>1</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="37">
         <v>1</v>
       </c>
       <c r="F41" s="23">
@@ -11633,7 +11612,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>15</v>
@@ -11641,7 +11620,7 @@
       <c r="D42" s="33">
         <v>1</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="54">
         <v>1</v>
       </c>
       <c r="F42" s="23">
@@ -11737,7 +11716,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>20</v>
@@ -11745,7 +11724,7 @@
       <c r="D43" s="33">
         <v>1</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="54">
         <v>1</v>
       </c>
       <c r="F43" s="23">
@@ -11796,7 +11775,7 @@
       <c r="U43" s="23">
         <v>1</v>
       </c>
-      <c r="V43" s="48">
+      <c r="V43" s="47">
         <v>0</v>
       </c>
       <c r="W43" s="23">
@@ -11841,7 +11820,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>18</v>
@@ -11849,7 +11828,7 @@
       <c r="D44" s="33">
         <v>1</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="40">
         <v>1</v>
       </c>
       <c r="F44" s="23">
@@ -11945,7 +11924,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>18</v>
@@ -11953,7 +11932,7 @@
       <c r="D45" s="2">
         <v>1</v>
       </c>
-      <c r="E45" s="41">
+      <c r="E45" s="40">
         <v>1</v>
       </c>
       <c r="F45" s="23">
@@ -12049,7 +12028,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>20</v>
@@ -12057,7 +12036,7 @@
       <c r="D46" s="2">
         <v>1.5</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="40">
         <v>1.5</v>
       </c>
       <c r="F46" s="23">
@@ -12153,7 +12132,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>15</v>
@@ -12161,7 +12140,7 @@
       <c r="D47" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="40">
         <v>1</v>
       </c>
       <c r="F47" s="23">
@@ -12257,7 +12236,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>19</v>
@@ -12265,7 +12244,7 @@
       <c r="D48" s="2">
         <v>1</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="40">
         <v>1</v>
       </c>
       <c r="F48" s="23">
@@ -12361,7 +12340,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>16</v>
@@ -12369,7 +12348,7 @@
       <c r="D49" s="2">
         <v>1</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="40">
         <v>1</v>
       </c>
       <c r="F49" s="23">
@@ -12467,7 +12446,7 @@
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
-      <c r="E50" s="42"/>
+      <c r="E50" s="41"/>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
@@ -12511,7 +12490,7 @@
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="E51" s="41">
+      <c r="E51" s="40">
         <v>1</v>
       </c>
       <c r="F51" s="9">
@@ -12615,7 +12594,7 @@
       <c r="D52" s="1">
         <v>1</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="40">
         <v>1</v>
       </c>
       <c r="F52" s="9">
@@ -12719,7 +12698,7 @@
       <c r="D53" s="1">
         <v>1</v>
       </c>
-      <c r="E53" s="41">
+      <c r="E53" s="40">
         <v>1</v>
       </c>
       <c r="F53" s="9">
@@ -12823,7 +12802,7 @@
       <c r="D54" s="1">
         <v>1</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="40">
         <v>1</v>
       </c>
       <c r="F54" s="9">
@@ -12915,7 +12894,7 @@
       </c>
     </row>
     <row r="57" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E57" s="68" t="s">
+      <c r="E57" s="67" t="s">
         <v>33</v>
       </c>
       <c r="F57" s="8">
@@ -13012,122 +12991,122 @@
       <c r="AM57" s="14"/>
     </row>
     <row r="58" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E58" s="68" t="s">
+      <c r="E58" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="68">
+      <c r="F58" s="67">
         <f>SUM(F2:F54)</f>
         <v>50</v>
       </c>
-      <c r="G58" s="68">
+      <c r="G58" s="67">
         <f t="shared" ref="G58:AH58" si="0">SUM(G2:G54)</f>
         <v>46</v>
       </c>
-      <c r="H58" s="68">
+      <c r="H58" s="67">
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="I58" s="68">
+      <c r="I58" s="67">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="J58" s="68">
+      <c r="J58" s="67">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="K58" s="68">
+      <c r="K58" s="67">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="L58" s="68">
+      <c r="L58" s="67">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="M58" s="68">
+      <c r="M58" s="67">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="N58" s="68">
+      <c r="N58" s="67">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
-      <c r="O58" s="68">
+      <c r="O58" s="67">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="P58" s="68">
+      <c r="P58" s="67">
         <f t="shared" si="0"/>
         <v>38.5</v>
       </c>
-      <c r="Q58" s="68">
+      <c r="Q58" s="67">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="R58" s="68">
+      <c r="R58" s="67">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
-      <c r="S58" s="68">
+      <c r="S58" s="67">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
-      <c r="T58" s="68">
+      <c r="T58" s="67">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
-      <c r="U58" s="68">
+      <c r="U58" s="67">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="V58" s="68">
+      <c r="V58" s="67">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="W58" s="68">
+      <c r="W58" s="67">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-      <c r="X58" s="68">
+      <c r="X58" s="67">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="Y58" s="68">
+      <c r="Y58" s="67">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Z58" s="68">
+      <c r="Z58" s="67">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AA58" s="68">
+      <c r="AA58" s="67">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AB58" s="68">
+      <c r="AB58" s="67">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="AC58" s="68">
+      <c r="AC58" s="67">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="AD58" s="68">
+      <c r="AD58" s="67">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="AE58" s="68">
+      <c r="AE58" s="67">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="AF58" s="68">
+      <c r="AF58" s="67">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="AG58" s="68">
+      <c r="AG58" s="67">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AH58" s="68">
+      <c r="AH58" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Document/5.SpringBacklog/Sprint2_Backlog.xlsx
+++ b/Document/5.SpringBacklog/Sprint2_Backlog.xlsx
@@ -1177,9 +1177,6 @@
                 <c:pt idx="27">
                   <c:v>43404</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>43405</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1223,7 +1220,7 @@
                   <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>39.5</c:v>
@@ -1238,10 +1235,10 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.5</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>14.5</c:v>
@@ -1256,25 +1253,22 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,9 +1386,6 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7527,10 +7518,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
+      <selection pane="bottomLeft" activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7643,9 +7634,7 @@
       <c r="AG1" s="7">
         <v>43404</v>
       </c>
-      <c r="AH1" s="7">
-        <v>43405</v>
-      </c>
+      <c r="AH1" s="7"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
@@ -7747,9 +7736,7 @@
       <c r="AG2" s="25">
         <v>0</v>
       </c>
-      <c r="AH2" s="25">
-        <v>0</v>
-      </c>
+      <c r="AH2" s="25"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
@@ -7851,9 +7838,7 @@
       <c r="AG3" s="25">
         <v>0</v>
       </c>
-      <c r="AH3" s="25">
-        <v>0</v>
-      </c>
+      <c r="AH3" s="25"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
@@ -7955,9 +7940,7 @@
       <c r="AG4" s="25">
         <v>0</v>
       </c>
-      <c r="AH4" s="25">
-        <v>0</v>
-      </c>
+      <c r="AH4" s="25"/>
     </row>
     <row r="5" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
@@ -8057,9 +8040,7 @@
       <c r="AG5" s="25">
         <v>0</v>
       </c>
-      <c r="AH5" s="25">
-        <v>0</v>
-      </c>
+      <c r="AH5" s="25"/>
     </row>
     <row r="6" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
@@ -8161,9 +8142,7 @@
       <c r="AG6" s="25">
         <v>0</v>
       </c>
-      <c r="AH6" s="25">
-        <v>0</v>
-      </c>
+      <c r="AH6" s="25"/>
     </row>
     <row r="7" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
@@ -8265,9 +8244,7 @@
       <c r="AG7" s="25">
         <v>0</v>
       </c>
-      <c r="AH7" s="25">
-        <v>0</v>
-      </c>
+      <c r="AH7" s="25"/>
     </row>
     <row r="8" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
@@ -8407,9 +8384,7 @@
       <c r="AG9" s="23">
         <v>0</v>
       </c>
-      <c r="AH9" s="23">
-        <v>0</v>
-      </c>
+      <c r="AH9" s="23"/>
     </row>
     <row r="10" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -8511,9 +8486,7 @@
       <c r="AG10" s="23">
         <v>0</v>
       </c>
-      <c r="AH10" s="23">
-        <v>0</v>
-      </c>
+      <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
@@ -8615,9 +8588,7 @@
       <c r="AG11" s="23">
         <v>0</v>
       </c>
-      <c r="AH11" s="23">
-        <v>0</v>
-      </c>
+      <c r="AH11" s="23"/>
     </row>
     <row r="12" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
@@ -8719,9 +8690,7 @@
       <c r="AG12" s="23">
         <v>0</v>
       </c>
-      <c r="AH12" s="23">
-        <v>0</v>
-      </c>
+      <c r="AH12" s="23"/>
     </row>
     <row r="13" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
@@ -8823,9 +8792,7 @@
       <c r="AG13" s="23">
         <v>0</v>
       </c>
-      <c r="AH13" s="23">
-        <v>0</v>
-      </c>
+      <c r="AH13" s="23"/>
     </row>
     <row r="14" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
@@ -8927,9 +8894,7 @@
       <c r="AG14" s="23">
         <v>0</v>
       </c>
-      <c r="AH14" s="23">
-        <v>0</v>
-      </c>
+      <c r="AH14" s="23"/>
     </row>
     <row r="15" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
@@ -9031,9 +8996,7 @@
       <c r="AG15" s="23">
         <v>0</v>
       </c>
-      <c r="AH15" s="23">
-        <v>0</v>
-      </c>
+      <c r="AH15" s="23"/>
     </row>
     <row r="16" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
@@ -9135,9 +9098,7 @@
       <c r="AG16" s="23">
         <v>0</v>
       </c>
-      <c r="AH16" s="23">
-        <v>0</v>
-      </c>
+      <c r="AH16" s="23"/>
     </row>
     <row r="17" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
@@ -9239,9 +9200,7 @@
       <c r="AG17" s="23">
         <v>0</v>
       </c>
-      <c r="AH17" s="23">
-        <v>0</v>
-      </c>
+      <c r="AH17" s="23"/>
     </row>
     <row r="18" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
@@ -9381,9 +9340,7 @@
       <c r="AG19" s="32">
         <v>0</v>
       </c>
-      <c r="AH19" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH19" s="32"/>
     </row>
     <row r="20" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -9485,9 +9442,7 @@
       <c r="AG20" s="32">
         <v>0</v>
       </c>
-      <c r="AH20" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH20" s="32"/>
     </row>
     <row r="21" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
@@ -9589,9 +9544,7 @@
       <c r="AG21" s="32">
         <v>0</v>
       </c>
-      <c r="AH21" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH21" s="32"/>
     </row>
     <row r="22" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
@@ -9693,9 +9646,7 @@
       <c r="AG22" s="32">
         <v>0</v>
       </c>
-      <c r="AH22" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH22" s="32"/>
     </row>
     <row r="23" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
@@ -9797,9 +9748,7 @@
       <c r="AG23" s="32">
         <v>0</v>
       </c>
-      <c r="AH23" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH23" s="32"/>
     </row>
     <row r="24" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
@@ -9901,9 +9850,7 @@
       <c r="AG24" s="32">
         <v>0</v>
       </c>
-      <c r="AH24" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH24" s="32"/>
     </row>
     <row r="25" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
@@ -10005,9 +9952,7 @@
       <c r="AG25" s="32">
         <v>0</v>
       </c>
-      <c r="AH25" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH25" s="32"/>
     </row>
     <row r="26" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
@@ -10109,9 +10054,7 @@
       <c r="AG26" s="32">
         <v>0</v>
       </c>
-      <c r="AH26" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH26" s="32"/>
     </row>
     <row r="27" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
@@ -10213,9 +10156,7 @@
       <c r="AG27" s="32">
         <v>0</v>
       </c>
-      <c r="AH27" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH27" s="32"/>
     </row>
     <row r="28" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
@@ -10317,9 +10258,7 @@
       <c r="AG28" s="32">
         <v>0</v>
       </c>
-      <c r="AH28" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH28" s="32"/>
     </row>
     <row r="29" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
@@ -10421,9 +10360,7 @@
       <c r="AG29" s="32">
         <v>0</v>
       </c>
-      <c r="AH29" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH29" s="32"/>
     </row>
     <row r="30" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
@@ -10525,9 +10462,7 @@
       <c r="AG30" s="32">
         <v>0</v>
       </c>
-      <c r="AH30" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH30" s="32"/>
     </row>
     <row r="31" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
@@ -10629,9 +10564,7 @@
       <c r="AG31" s="32">
         <v>0</v>
       </c>
-      <c r="AH31" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH31" s="32"/>
     </row>
     <row r="32" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
@@ -10733,9 +10666,7 @@
       <c r="AG32" s="32">
         <v>0</v>
       </c>
-      <c r="AH32" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH32" s="32"/>
     </row>
     <row r="33" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
@@ -10837,9 +10768,7 @@
       <c r="AG33" s="32">
         <v>0</v>
       </c>
-      <c r="AH33" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH33" s="32"/>
     </row>
     <row r="34" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A34" s="22">
@@ -10941,9 +10870,7 @@
       <c r="AG34" s="32">
         <v>0</v>
       </c>
-      <c r="AH34" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH34" s="32"/>
     </row>
     <row r="35" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
@@ -11045,9 +10972,7 @@
       <c r="AG35" s="32">
         <v>0</v>
       </c>
-      <c r="AH35" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH35" s="32"/>
     </row>
     <row r="36" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
@@ -11114,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="V36" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="23">
         <v>0</v>
@@ -11149,9 +11074,7 @@
       <c r="AG36" s="32">
         <v>0</v>
       </c>
-      <c r="AH36" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH36" s="32"/>
     </row>
     <row r="37" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A37" s="22">
@@ -11202,8 +11125,8 @@
       <c r="P37" s="23">
         <v>1</v>
       </c>
-      <c r="Q37" s="23">
-        <v>1</v>
+      <c r="Q37" s="47">
+        <v>0</v>
       </c>
       <c r="R37" s="23">
         <v>1</v>
@@ -11221,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="W37" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="23">
         <v>0</v>
@@ -11253,9 +11176,7 @@
       <c r="AG37" s="32">
         <v>0</v>
       </c>
-      <c r="AH37" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH37" s="32"/>
     </row>
     <row r="38" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
@@ -11322,10 +11243,10 @@
         <v>2</v>
       </c>
       <c r="V38" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W38" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X38" s="23">
         <v>0</v>
@@ -11357,9 +11278,7 @@
       <c r="AG38" s="32">
         <v>0</v>
       </c>
-      <c r="AH38" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH38" s="32"/>
     </row>
     <row r="39" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
@@ -11499,9 +11418,7 @@
       <c r="AG40" s="32">
         <v>0</v>
       </c>
-      <c r="AH40" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH40" s="32"/>
     </row>
     <row r="41" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
@@ -11603,9 +11520,7 @@
       <c r="AG41" s="32">
         <v>0</v>
       </c>
-      <c r="AH41" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH41" s="32"/>
     </row>
     <row r="42" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
@@ -11707,9 +11622,7 @@
       <c r="AG42" s="32">
         <v>0</v>
       </c>
-      <c r="AH42" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH42" s="32"/>
     </row>
     <row r="43" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
@@ -11811,9 +11724,7 @@
       <c r="AG43" s="32">
         <v>0</v>
       </c>
-      <c r="AH43" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH43" s="32"/>
     </row>
     <row r="44" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
@@ -11915,9 +11826,7 @@
       <c r="AG44" s="23">
         <v>0</v>
       </c>
-      <c r="AH44" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH44" s="32"/>
     </row>
     <row r="45" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A45" s="22">
@@ -12001,7 +11910,7 @@
       <c r="AA45" s="23">
         <v>1</v>
       </c>
-      <c r="AB45" s="23">
+      <c r="AB45" s="47">
         <v>0</v>
       </c>
       <c r="AC45" s="23">
@@ -12019,9 +11928,7 @@
       <c r="AG45" s="23">
         <v>0</v>
       </c>
-      <c r="AH45" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH45" s="32"/>
     </row>
     <row r="46" spans="1:34" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
@@ -12106,7 +12013,7 @@
         <v>1.5</v>
       </c>
       <c r="AB46" s="23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC46" s="23">
         <v>0</v>
@@ -12123,9 +12030,7 @@
       <c r="AG46" s="23">
         <v>0</v>
       </c>
-      <c r="AH46" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH46" s="32"/>
     </row>
     <row r="47" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
@@ -12210,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="AB47" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="23">
         <v>0</v>
@@ -12227,9 +12132,7 @@
       <c r="AG47" s="23">
         <v>0</v>
       </c>
-      <c r="AH47" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH47" s="32"/>
     </row>
     <row r="48" spans="1:34" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
@@ -12314,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="AB48" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" s="23">
         <v>0</v>
@@ -12331,9 +12234,7 @@
       <c r="AG48" s="23">
         <v>0</v>
       </c>
-      <c r="AH48" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH48" s="32"/>
     </row>
     <row r="49" spans="1:39" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
@@ -12418,26 +12319,24 @@
         <v>1</v>
       </c>
       <c r="AB49" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF49" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="32">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH49" s="32"/>
     </row>
     <row r="50" spans="1:39" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
@@ -12577,9 +12476,7 @@
       <c r="AG51" s="9">
         <v>1</v>
       </c>
-      <c r="AH51" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH51" s="32"/>
     </row>
     <row r="52" spans="1:39" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
@@ -12681,9 +12578,7 @@
       <c r="AG52" s="9">
         <v>1</v>
       </c>
-      <c r="AH52" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH52" s="32"/>
     </row>
     <row r="53" spans="1:39" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A53" s="22">
@@ -12785,9 +12680,7 @@
       <c r="AG53" s="9">
         <v>1</v>
       </c>
-      <c r="AH53" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH53" s="32"/>
     </row>
     <row r="54" spans="1:39" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
@@ -12889,9 +12782,7 @@
       <c r="AG54" s="9">
         <v>1</v>
       </c>
-      <c r="AH54" s="32">
-        <v>0</v>
-      </c>
+      <c r="AH54" s="32"/>
     </row>
     <row r="57" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E57" s="67" t="s">
@@ -12981,9 +12872,7 @@
       <c r="AG57" s="8">
         <v>4</v>
       </c>
-      <c r="AH57" s="8">
-        <v>0</v>
-      </c>
+      <c r="AH57" s="8"/>
       <c r="AI57" s="14"/>
       <c r="AJ57" s="14"/>
       <c r="AK57" s="14"/>
@@ -13040,7 +12929,7 @@
       </c>
       <c r="Q58" s="67">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R58" s="67">
         <f t="shared" si="0"/>
@@ -13060,11 +12949,11 @@
       </c>
       <c r="V58" s="67">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="W58" s="67">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
       <c r="X58" s="67">
         <f t="shared" si="0"/>
@@ -13084,32 +12973,29 @@
       </c>
       <c r="AB58" s="67">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="AC58" s="67">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD58" s="67">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE58" s="67">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF58" s="67">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG58" s="67">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AH58" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AH58" s="67"/>
     </row>
     <row r="59" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E59" s="14"/>
